--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll3-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll3-Notch3.xlsx
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H2">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I2">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J2">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.987818</v>
+        <v>19.412944</v>
       </c>
       <c r="N2">
-        <v>8.963454</v>
+        <v>58.238832</v>
       </c>
       <c r="O2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q2">
-        <v>0.9992548153740003</v>
+        <v>6.704040197034667</v>
       </c>
       <c r="R2">
-        <v>8.993293338366001</v>
+        <v>60.336361773312</v>
       </c>
       <c r="S2">
-        <v>0.01284525379741697</v>
+        <v>0.08142807384622008</v>
       </c>
       <c r="T2">
-        <v>0.01284525379741697</v>
+        <v>0.08142807384622004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H3">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I3">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J3">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.05825042696427194</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P3">
-        <v>0.05825042696427195</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q3">
-        <v>1.58570351438</v>
+        <v>1.637363429297778</v>
       </c>
       <c r="R3">
-        <v>14.27133162942</v>
+        <v>14.73627086368</v>
       </c>
       <c r="S3">
-        <v>0.02038395389872955</v>
+        <v>0.01988761199447059</v>
       </c>
       <c r="T3">
-        <v>0.02038395389872955</v>
+        <v>0.01988761199447058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H4">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I4">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J4">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1099783333333333</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N4">
-        <v>0.329935</v>
+        <v>0.245974</v>
       </c>
       <c r="O4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q4">
-        <v>0.036781483735</v>
+        <v>0.02831477773155556</v>
       </c>
       <c r="R4">
-        <v>0.331033353615</v>
+        <v>0.254832999584</v>
       </c>
       <c r="S4">
-        <v>0.0004728198316910833</v>
+        <v>0.0003439146759716977</v>
       </c>
       <c r="T4">
-        <v>0.0004728198316910833</v>
+        <v>0.0003439146759716976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H5">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I5">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J5">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.98704766666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N5">
-        <v>218.961143</v>
+        <v>112.478254</v>
       </c>
       <c r="O5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q5">
-        <v>24.410007182783</v>
+        <v>12.94769675511822</v>
       </c>
       <c r="R5">
-        <v>219.690064645047</v>
+        <v>116.529270796064</v>
       </c>
       <c r="S5">
-        <v>0.313786566384734</v>
+        <v>0.1572642729649162</v>
       </c>
       <c r="T5">
-        <v>0.313786566384734</v>
+        <v>0.1572642729649162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H6">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I6">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J6">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,42 +809,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.357675</v>
+        <v>0.130837</v>
       </c>
       <c r="N6">
-        <v>1.073025</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O6">
-        <v>0.004394280953245005</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P6">
-        <v>0.004394280953245006</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q6">
-        <v>0.119621900025</v>
+        <v>0.04518307513066668</v>
       </c>
       <c r="R6">
-        <v>1.076597100225</v>
+        <v>0.4066476761760001</v>
       </c>
       <c r="S6">
-        <v>0.00153771955051851</v>
+        <v>0.0005487990331511747</v>
       </c>
       <c r="T6">
-        <v>0.00153771955051851</v>
+        <v>0.0005487990331511746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.334443</v>
+        <v>0.1999893333333334</v>
       </c>
       <c r="H7">
-        <v>1.003329</v>
+        <v>0.5999680000000001</v>
       </c>
       <c r="I7">
-        <v>0.3499365577394326</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J7">
-        <v>0.3499365577394326</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2117236666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N7">
-        <v>0.635171</v>
+        <v>58.238832</v>
       </c>
       <c r="O7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q7">
-        <v>0.07080949825100001</v>
+        <v>3.882381728597334</v>
       </c>
       <c r="R7">
-        <v>0.6372854842590001</v>
+        <v>34.941435557376</v>
       </c>
       <c r="S7">
-        <v>0.0009102442763424827</v>
+        <v>0.04715587269826815</v>
       </c>
       <c r="T7">
-        <v>0.0009102442763424827</v>
+        <v>0.04715587269826813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,10 +921,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I8">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J8">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.987818</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N8">
-        <v>8.963454</v>
+        <v>14.22398</v>
       </c>
       <c r="O8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q8">
-        <v>0.5975317299413334</v>
+        <v>0.9482147591822223</v>
       </c>
       <c r="R8">
-        <v>5.377785569472</v>
+        <v>8.533932832640001</v>
       </c>
       <c r="S8">
-        <v>0.0076811706133568</v>
+        <v>0.01151712984461488</v>
       </c>
       <c r="T8">
-        <v>0.0076811706133568</v>
+        <v>0.01151712984461488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,40 +983,40 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I9">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J9">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.741326666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N9">
-        <v>14.22398</v>
+        <v>0.245974</v>
       </c>
       <c r="O9">
-        <v>0.05825042696427194</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P9">
-        <v>0.05825042696427195</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q9">
-        <v>0.9482147591822223</v>
+        <v>0.01639739209244444</v>
       </c>
       <c r="R9">
-        <v>8.533932832640001</v>
+        <v>0.147576528832</v>
       </c>
       <c r="S9">
-        <v>0.01218914239767113</v>
+        <v>0.0001991646850177869</v>
       </c>
       <c r="T9">
-        <v>0.01218914239767113</v>
+        <v>0.0001991646850177869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,40 +1045,40 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I10">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J10">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1099783333333333</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N10">
-        <v>0.329935</v>
+        <v>112.478254</v>
       </c>
       <c r="O10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q10">
-        <v>0.02199449356444445</v>
+        <v>7.498150343985778</v>
       </c>
       <c r="R10">
-        <v>0.19795044208</v>
+        <v>67.483353095872</v>
       </c>
       <c r="S10">
-        <v>0.0002827355421601846</v>
+        <v>0.09107343064413569</v>
       </c>
       <c r="T10">
-        <v>0.0002827355421601846</v>
+        <v>0.09107343064413564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,134 +1107,134 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I11">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J11">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>72.98704766666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N11">
-        <v>218.961143</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q11">
-        <v>14.59663100482489</v>
+        <v>0.02616600440533334</v>
       </c>
       <c r="R11">
-        <v>131.369679043424</v>
+        <v>0.2354940396480001</v>
       </c>
       <c r="S11">
-        <v>0.1876372542413467</v>
+        <v>0.0003178154182190661</v>
       </c>
       <c r="T11">
-        <v>0.1876372542413467</v>
+        <v>0.000317815418219066</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1999893333333334</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H12">
-        <v>0.5999680000000001</v>
+        <v>0.172373</v>
       </c>
       <c r="I12">
-        <v>0.2092541296761201</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J12">
-        <v>0.2092541296761201</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357675</v>
+        <v>19.412944</v>
       </c>
       <c r="N12">
-        <v>1.073025</v>
+        <v>58.238832</v>
       </c>
       <c r="O12">
-        <v>0.004394280953245005</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P12">
-        <v>0.004394280953245006</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q12">
-        <v>0.07153118479999999</v>
+        <v>1.115422465370667</v>
       </c>
       <c r="R12">
-        <v>0.6437806632</v>
+        <v>10.038802188336</v>
       </c>
       <c r="S12">
-        <v>0.000919521436423635</v>
+        <v>0.01354805463727828</v>
       </c>
       <c r="T12">
-        <v>0.0009195214364236352</v>
+        <v>0.01354805463727827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1999893333333334</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H13">
-        <v>0.5999680000000001</v>
+        <v>0.172373</v>
       </c>
       <c r="I13">
-        <v>0.2092541296761201</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J13">
-        <v>0.2092541296761201</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2117236666666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N13">
-        <v>0.635171</v>
+        <v>14.22398</v>
       </c>
       <c r="O13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q13">
-        <v>0.04234247494755556</v>
+        <v>0.2724255671711111</v>
       </c>
       <c r="R13">
-        <v>0.3810822745280001</v>
+        <v>2.45183010454</v>
       </c>
       <c r="S13">
-        <v>0.0005443054451617034</v>
+        <v>0.003308913513230373</v>
       </c>
       <c r="T13">
-        <v>0.0005443054451617034</v>
+        <v>0.003308913513230373</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H14">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I14">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J14">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.987818</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N14">
-        <v>8.963454</v>
+        <v>0.245974</v>
       </c>
       <c r="O14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q14">
-        <v>0.2631391231386667</v>
+        <v>0.004711030700222222</v>
       </c>
       <c r="R14">
-        <v>2.368252108248</v>
+        <v>0.042399276302</v>
       </c>
       <c r="S14">
-        <v>0.003382609489333142</v>
+        <v>5.722074219053513E-05</v>
       </c>
       <c r="T14">
-        <v>0.003382609489333142</v>
+        <v>5.722074219053512E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H15">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I15">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J15">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.741326666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N15">
-        <v>14.22398</v>
+        <v>112.478254</v>
       </c>
       <c r="O15">
-        <v>0.05825042696427194</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P15">
-        <v>0.05825042696427195</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q15">
-        <v>0.4175718004177778</v>
+        <v>2.154246008526889</v>
       </c>
       <c r="R15">
-        <v>3.75814620376</v>
+        <v>19.388214076742</v>
       </c>
       <c r="S15">
-        <v>0.005367815768796807</v>
+        <v>0.02616572960628166</v>
       </c>
       <c r="T15">
-        <v>0.005367815768796807</v>
+        <v>0.02616572960628166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H16">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I16">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J16">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,60 +1429,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1099783333333333</v>
+        <v>0.130837</v>
       </c>
       <c r="N16">
-        <v>0.329935</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q16">
-        <v>0.009685865135555556</v>
+        <v>0.007517588733666667</v>
       </c>
       <c r="R16">
-        <v>0.08717278621999999</v>
+        <v>0.067658298603</v>
       </c>
       <c r="S16">
-        <v>0.0001245101789849237</v>
+        <v>9.130953164947976E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001245101789849237</v>
+        <v>9.130953164947976E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08807066666666667</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H17">
-        <v>0.264212</v>
+        <v>1.257256</v>
       </c>
       <c r="I17">
-        <v>0.09215066821895009</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J17">
-        <v>0.09215066821895007</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,152 +1491,152 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.98704766666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N17">
-        <v>218.961143</v>
+        <v>58.238832</v>
       </c>
       <c r="O17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q17">
-        <v>6.428017946035112</v>
+        <v>8.135680107221333</v>
       </c>
       <c r="R17">
-        <v>57.852161514316</v>
+        <v>73.221120964992</v>
       </c>
       <c r="S17">
-        <v>0.08263109735455004</v>
+        <v>0.0988169433788699</v>
       </c>
       <c r="T17">
-        <v>0.08263109735455003</v>
+        <v>0.09881694337886986</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.08807066666666667</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H18">
-        <v>0.264212</v>
+        <v>1.257256</v>
       </c>
       <c r="I18">
-        <v>0.09215066821895009</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J18">
-        <v>0.09215066821895007</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.357675</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N18">
-        <v>1.073025</v>
+        <v>14.22398</v>
       </c>
       <c r="O18">
-        <v>0.004394280953245005</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P18">
-        <v>0.004394280953245006</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q18">
-        <v>0.0315006757</v>
+        <v>1.987020466542222</v>
       </c>
       <c r="R18">
-        <v>0.2835060813</v>
+        <v>17.88318419888</v>
       </c>
       <c r="S18">
-        <v>0.0004049359261833322</v>
+        <v>0.0241345881779047</v>
       </c>
       <c r="T18">
-        <v>0.0004049359261833322</v>
+        <v>0.0241345881779047</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.08807066666666667</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H19">
-        <v>0.264212</v>
+        <v>1.257256</v>
       </c>
       <c r="I19">
-        <v>0.09215066821895009</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J19">
-        <v>0.09215066821895007</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2117236666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N19">
-        <v>0.635171</v>
+        <v>0.245974</v>
       </c>
       <c r="O19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q19">
-        <v>0.01864664447244445</v>
+        <v>0.03436136526044445</v>
       </c>
       <c r="R19">
-        <v>0.167819800252</v>
+        <v>0.309252287344</v>
       </c>
       <c r="S19">
-        <v>0.000239699501101832</v>
+        <v>0.0004173572510979298</v>
       </c>
       <c r="T19">
-        <v>0.000239699501101832</v>
+        <v>0.0004173572510979296</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H20">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I20">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J20">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.987818</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N20">
-        <v>8.963454</v>
+        <v>112.478254</v>
       </c>
       <c r="O20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q20">
-        <v>0.5269644484780002</v>
+        <v>15.71266219011378</v>
       </c>
       <c r="R20">
-        <v>4.742680036302001</v>
+        <v>141.413959711024</v>
       </c>
       <c r="S20">
-        <v>0.006774039993374741</v>
+        <v>0.1908478737498057</v>
       </c>
       <c r="T20">
-        <v>0.006774039993374741</v>
+        <v>0.1908478737498057</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,75 +1706,75 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H21">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I21">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J21">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>4.741326666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N21">
-        <v>14.22398</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O21">
-        <v>0.05825042696427194</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P21">
-        <v>0.05825042696427195</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q21">
-        <v>0.8362325255266668</v>
+        <v>0.05483186775733334</v>
       </c>
       <c r="R21">
-        <v>7.526092729740001</v>
+        <v>0.4934868098160001</v>
       </c>
       <c r="S21">
-        <v>0.01074962948267068</v>
+        <v>0.0006659944221165631</v>
       </c>
       <c r="T21">
-        <v>0.01074962948267068</v>
+        <v>0.0006659944221165631</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,60 +1783,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.176371</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H22">
-        <v>0.5291130000000001</v>
+        <v>0.703309</v>
       </c>
       <c r="I22">
-        <v>0.1845416427464814</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J22">
-        <v>0.1845416427464814</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1099783333333333</v>
+        <v>19.412944</v>
       </c>
       <c r="N22">
-        <v>0.329935</v>
+        <v>58.238832</v>
       </c>
       <c r="O22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q22">
-        <v>0.01939698862833334</v>
+        <v>4.551099410565334</v>
       </c>
       <c r="R22">
-        <v>0.174572897655</v>
+        <v>40.959894695088</v>
       </c>
       <c r="S22">
-        <v>0.0002493450499343328</v>
+        <v>0.05527819762311702</v>
       </c>
       <c r="T22">
-        <v>0.0002493450499343328</v>
+        <v>0.05527819762311699</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.176371</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H23">
-        <v>0.5291130000000001</v>
+        <v>0.703309</v>
       </c>
       <c r="I23">
-        <v>0.1845416427464814</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J23">
-        <v>0.1845416427464814</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,42 +1863,42 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>72.98704766666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N23">
-        <v>218.961143</v>
+        <v>14.22398</v>
       </c>
       <c r="O23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q23">
-        <v>12.87279858401767</v>
+        <v>1.111539238868889</v>
       </c>
       <c r="R23">
-        <v>115.855187256159</v>
+        <v>10.00385314982</v>
       </c>
       <c r="S23">
-        <v>0.1654776763150729</v>
+        <v>0.01350088850386395</v>
       </c>
       <c r="T23">
-        <v>0.1654776763150729</v>
+        <v>0.01350088850386395</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.176371</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H24">
-        <v>0.5291130000000001</v>
+        <v>0.703309</v>
       </c>
       <c r="I24">
-        <v>0.1845416427464814</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J24">
-        <v>0.1845416427464814</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,42 +1925,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.357675</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N24">
-        <v>1.073025</v>
+        <v>0.245974</v>
       </c>
       <c r="O24">
-        <v>0.004394280953245005</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P24">
-        <v>0.004394280953245006</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q24">
-        <v>0.06308349742500001</v>
+        <v>0.01922174755177778</v>
       </c>
       <c r="R24">
-        <v>0.567751476825</v>
+        <v>0.172995727966</v>
       </c>
       <c r="S24">
-        <v>0.0008109278258014074</v>
+        <v>0.0002334696441396453</v>
       </c>
       <c r="T24">
-        <v>0.0008109278258014075</v>
+        <v>0.0002334696441396452</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.176371</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H25">
-        <v>0.5291130000000001</v>
+        <v>0.703309</v>
       </c>
       <c r="I25">
-        <v>0.1845416427464814</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J25">
-        <v>0.1845416427464814</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2117236666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N25">
-        <v>0.635171</v>
+        <v>112.478254</v>
       </c>
       <c r="O25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q25">
-        <v>0.03734191481366667</v>
+        <v>8.78966314916511</v>
       </c>
       <c r="R25">
-        <v>0.336077233323</v>
+        <v>79.10696834248598</v>
       </c>
       <c r="S25">
-        <v>0.0004800240796273208</v>
+        <v>0.1067602996041396</v>
       </c>
       <c r="T25">
-        <v>0.0004800240796273208</v>
+        <v>0.1067602996041395</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2031,60 +2031,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H26">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I26">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J26">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.987818</v>
+        <v>0.130837</v>
       </c>
       <c r="N26">
-        <v>8.963454</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q26">
-        <v>0.4686412451786667</v>
+        <v>0.03067294654433333</v>
       </c>
       <c r="R26">
-        <v>4.217771206608001</v>
+        <v>0.276056518899</v>
       </c>
       <c r="S26">
-        <v>0.00602430495369131</v>
+        <v>0.0003725572763417934</v>
       </c>
       <c r="T26">
-        <v>0.006024304953691311</v>
+        <v>0.0003725572763417934</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1568506666666667</v>
+        <v>0.07461766666666667</v>
       </c>
       <c r="H27">
-        <v>0.470552</v>
+        <v>0.223853</v>
       </c>
       <c r="I27">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="J27">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,42 +2111,42 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.741326666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N27">
-        <v>14.22398</v>
+        <v>58.238832</v>
       </c>
       <c r="O27">
-        <v>0.05825042696427194</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P27">
-        <v>0.05825042696427195</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q27">
-        <v>0.7436802485511111</v>
+        <v>1.448548584410667</v>
       </c>
       <c r="R27">
-        <v>6.693122236960001</v>
+        <v>13.036937259696</v>
       </c>
       <c r="S27">
-        <v>0.009559885416403778</v>
+        <v>0.01759424431157232</v>
       </c>
       <c r="T27">
-        <v>0.00955988541640378</v>
+        <v>0.01759424431157231</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,60 +2155,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1568506666666667</v>
+        <v>0.07461766666666667</v>
       </c>
       <c r="H28">
-        <v>0.470552</v>
+        <v>0.223853</v>
       </c>
       <c r="I28">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="J28">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1099783333333333</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N28">
-        <v>0.329935</v>
+        <v>14.22398</v>
       </c>
       <c r="O28">
-        <v>0.001351158720727747</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P28">
-        <v>0.001351158720727747</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q28">
-        <v>0.01725017490222222</v>
+        <v>0.3537867327711111</v>
       </c>
       <c r="R28">
-        <v>0.15525157412</v>
+        <v>3.18408059494</v>
       </c>
       <c r="S28">
-        <v>0.000221748117957223</v>
+        <v>0.004297135959095443</v>
       </c>
       <c r="T28">
-        <v>0.000221748117957223</v>
+        <v>0.004297135959095442</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,60 +2217,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1568506666666667</v>
+        <v>0.07461766666666667</v>
       </c>
       <c r="H29">
-        <v>0.470552</v>
+        <v>0.223853</v>
       </c>
       <c r="I29">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="J29">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>72.98704766666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N29">
-        <v>218.961143</v>
+        <v>0.245974</v>
       </c>
       <c r="O29">
-        <v>0.8966955850848359</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P29">
-        <v>0.8966955850848359</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q29">
-        <v>11.44806708454844</v>
+        <v>0.006118001980222222</v>
       </c>
       <c r="R29">
-        <v>103.032603760936</v>
+        <v>0.055062017822</v>
       </c>
       <c r="S29">
-        <v>0.1471629907891323</v>
+        <v>7.430998359126929E-05</v>
       </c>
       <c r="T29">
-        <v>0.1471629907891323</v>
+        <v>7.430998359126927E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,57 +2279,57 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1568506666666667</v>
+        <v>0.07461766666666667</v>
       </c>
       <c r="H30">
-        <v>0.470552</v>
+        <v>0.223853</v>
       </c>
       <c r="I30">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="J30">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.357675</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N30">
-        <v>1.073025</v>
+        <v>112.478254</v>
       </c>
       <c r="O30">
-        <v>0.004394280953245005</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P30">
-        <v>0.004394280953245006</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q30">
-        <v>0.0561015622</v>
+        <v>2.797621621406889</v>
       </c>
       <c r="R30">
-        <v>0.5049140597999999</v>
+        <v>25.178594592662</v>
       </c>
       <c r="S30">
-        <v>0.0007211762143181207</v>
+        <v>0.03398024672979509</v>
       </c>
       <c r="T30">
-        <v>0.0007211762143181209</v>
+        <v>0.03398024672979508</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -2341,46 +2341,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1568506666666667</v>
+        <v>0.07461766666666667</v>
       </c>
       <c r="H31">
-        <v>0.470552</v>
+        <v>0.223853</v>
       </c>
       <c r="I31">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="J31">
-        <v>0.1641170016190158</v>
+        <v>0.05606451653298771</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.2117236666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N31">
-        <v>0.635171</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O31">
-        <v>0.002601169429746356</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P31">
-        <v>0.002601169429746356</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q31">
-        <v>0.03320899826577778</v>
+        <v>0.009762751653666668</v>
       </c>
       <c r="R31">
-        <v>0.2988809843920001</v>
+        <v>0.087864764883</v>
       </c>
       <c r="S31">
-        <v>0.000426896127513017</v>
+        <v>0.0001185795489335974</v>
       </c>
       <c r="T31">
-        <v>0.0004268961275130171</v>
+        <v>0.0001185795489335974</v>
       </c>
     </row>
   </sheetData>
